--- a/docs/etablissements.xlsx
+++ b/docs/etablissements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d3cf99a0c059696/Cours Olivier/planexam/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d3cf99a0c059696/Documents/projects/Java/planexam/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_BEA61AB95635FAB7774B26E18673B4A470D9EBDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F0438F-ECEA-4A31-BA50-1CB5B2E6C2A6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_BEA61AB95635FAB7774B26E18673B4A470D9EBDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3462F62-4111-4F1A-BA45-F915A4392B02}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="449">
   <si>
     <t>id</t>
   </si>
@@ -409,9 +409,6 @@
     <t>H3C Campus Poissy</t>
   </si>
   <si>
-    <t>Saint Germain (78)</t>
-  </si>
-  <si>
     <t>0781858W</t>
   </si>
   <si>
@@ -1364,6 +1361,15 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Saint-Germain</t>
+  </si>
+  <si>
+    <t>Champs-sur-Marne</t>
+  </si>
+  <si>
+    <t>Issy-Les-Moulineaux</t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1422,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1711,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2392,7 +2394,7 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>447</v>
       </c>
       <c r="D39" t="s">
         <v>113</v>
@@ -2460,13 +2462,13 @@
         <v>127</v>
       </c>
       <c r="C43" t="s">
+        <v>446</v>
+      </c>
+      <c r="D43" t="s">
         <v>128</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>129</v>
-      </c>
-      <c r="E43" t="s">
-        <v>130</v>
       </c>
       <c r="F43" t="s">
         <v>44</v>
@@ -2477,16 +2479,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
         <v>131</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>132</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>133</v>
-      </c>
-      <c r="E44" t="s">
-        <v>134</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -2497,16 +2499,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>136</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>137</v>
-      </c>
-      <c r="E45" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,16 +2516,16 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
         <v>139</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>140</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>141</v>
-      </c>
-      <c r="E46" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,16 +2533,16 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
         <v>143</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>144</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>145</v>
-      </c>
-      <c r="E47" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,16 +2550,16 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
         <v>147</v>
       </c>
-      <c r="C48" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>148</v>
-      </c>
-      <c r="E48" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2565,16 +2567,16 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
         <v>150</v>
       </c>
-      <c r="C49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" t="s">
-        <v>151</v>
-      </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F49" t="s">
         <v>44</v>
@@ -2585,16 +2587,16 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
         <v>152</v>
       </c>
-      <c r="C50" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>153</v>
-      </c>
-      <c r="E50" t="s">
-        <v>154</v>
       </c>
       <c r="F50" t="s">
         <v>44</v>
@@ -2605,13 +2607,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="s">
         <v>155</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>156</v>
-      </c>
-      <c r="E51" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2619,16 +2621,16 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>159</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>160</v>
-      </c>
-      <c r="E52" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,16 +2638,16 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
         <v>162</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>163</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>164</v>
-      </c>
-      <c r="E53" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,16 +2655,16 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
         <v>166</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>167</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>168</v>
-      </c>
-      <c r="E54" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2670,16 +2672,16 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
+        <v>448</v>
+      </c>
+      <c r="D55" t="s">
         <v>171</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>172</v>
-      </c>
-      <c r="E55" t="s">
-        <v>173</v>
       </c>
       <c r="F55" t="s">
         <v>44</v>
@@ -2690,16 +2692,16 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
         <v>174</v>
       </c>
-      <c r="C56" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>175</v>
-      </c>
-      <c r="E56" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2707,16 +2709,16 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
         <v>177</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>178</v>
       </c>
-      <c r="D57" t="s">
-        <v>179</v>
-      </c>
       <c r="E57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F57" t="s">
         <v>44</v>
@@ -2727,16 +2729,16 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
         <v>180</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>181</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>182</v>
-      </c>
-      <c r="E58" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,16 +2746,16 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
         <v>184</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>185</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>186</v>
-      </c>
-      <c r="E59" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,16 +2763,16 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
         <v>188</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>189</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>190</v>
-      </c>
-      <c r="E60" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,16 +2780,16 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" t="s">
         <v>192</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>193</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>194</v>
-      </c>
-      <c r="E61" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,16 +2797,16 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>196</v>
       </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>197</v>
-      </c>
-      <c r="E62" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,16 +2814,16 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
         <v>199</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>200</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>201</v>
-      </c>
-      <c r="E63" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,16 +2831,16 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
         <v>203</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>204</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>205</v>
-      </c>
-      <c r="E64" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,16 +2848,16 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
         <v>207</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>208</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>209</v>
-      </c>
-      <c r="E65" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,13 +2865,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" t="s">
         <v>211</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>212</v>
-      </c>
-      <c r="E66" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,16 +2879,16 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
         <v>214</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>215</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>216</v>
-      </c>
-      <c r="E67" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2894,16 +2896,16 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" t="s">
         <v>218</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>219</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>220</v>
-      </c>
-      <c r="E68" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,16 +2913,16 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" t="s">
         <v>222</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>223</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>224</v>
-      </c>
-      <c r="E69" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,16 +2930,16 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" t="s">
         <v>226</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>227</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>228</v>
-      </c>
-      <c r="E70" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2945,16 +2947,16 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" t="s">
         <v>230</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>231</v>
       </c>
-      <c r="D71" t="s">
-        <v>232</v>
-      </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F71" t="s">
         <v>44</v>
@@ -2965,16 +2967,16 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" t="s">
         <v>233</v>
       </c>
-      <c r="C72" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>234</v>
-      </c>
-      <c r="E72" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,16 +2984,16 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>236</v>
       </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>237</v>
-      </c>
-      <c r="E73" t="s">
-        <v>238</v>
       </c>
       <c r="F73" t="s">
         <v>44</v>
@@ -3002,16 +3004,16 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>239</v>
       </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>240</v>
-      </c>
-      <c r="E74" t="s">
-        <v>241</v>
       </c>
       <c r="F74" t="s">
         <v>44</v>
@@ -3022,16 +3024,16 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>242</v>
       </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>243</v>
-      </c>
-      <c r="E75" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,13 +3041,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" t="s">
         <v>245</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>246</v>
-      </c>
-      <c r="E76" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,16 +3055,16 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" t="s">
         <v>248</v>
       </c>
-      <c r="C77" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>249</v>
-      </c>
-      <c r="E77" t="s">
-        <v>250</v>
       </c>
       <c r="F77" t="s">
         <v>44</v>
@@ -3073,16 +3075,16 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" t="s">
         <v>251</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>252</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>253</v>
-      </c>
-      <c r="E78" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3090,13 +3092,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" t="s">
         <v>255</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>256</v>
-      </c>
-      <c r="E79" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,16 +3106,16 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>258</v>
       </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>259</v>
-      </c>
-      <c r="E80" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,16 +3123,16 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" t="s">
         <v>261</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>262</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>263</v>
-      </c>
-      <c r="E81" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,16 +3140,16 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" t="s">
         <v>265</v>
       </c>
-      <c r="C82" t="s">
-        <v>262</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>266</v>
-      </c>
-      <c r="E82" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,16 +3157,16 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" t="s">
         <v>268</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>269</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>270</v>
-      </c>
-      <c r="E83" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,16 +3174,16 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" t="s">
         <v>272</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>273</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>274</v>
-      </c>
-      <c r="E84" t="s">
-        <v>275</v>
       </c>
       <c r="F84" t="s">
         <v>44</v>
@@ -3192,16 +3194,16 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>276</v>
       </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>277</v>
-      </c>
-      <c r="E85" t="s">
-        <v>278</v>
       </c>
       <c r="F85" t="s">
         <v>44</v>
@@ -3212,16 +3214,16 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>279</v>
       </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" t="s">
-        <v>280</v>
-      </c>
       <c r="E86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3229,16 +3231,16 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
         <v>281</v>
       </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" t="s">
-        <v>282</v>
-      </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,16 +3248,16 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" t="s">
         <v>283</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>284</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>285</v>
-      </c>
-      <c r="E88" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3263,16 +3265,16 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" t="s">
         <v>287</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>288</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>289</v>
-      </c>
-      <c r="E89" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,16 +3282,16 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
         <v>291</v>
       </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>292</v>
-      </c>
-      <c r="E90" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3297,16 +3299,16 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>294</v>
       </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>295</v>
-      </c>
       <c r="E91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3314,13 +3316,13 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" t="s">
         <v>296</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>297</v>
-      </c>
-      <c r="E92" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3328,13 +3330,13 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93" t="s">
         <v>299</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>300</v>
-      </c>
-      <c r="E93" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3342,16 +3344,16 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" t="s">
         <v>302</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>303</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>304</v>
-      </c>
-      <c r="E94" t="s">
-        <v>305</v>
       </c>
       <c r="F94" t="s">
         <v>44</v>
@@ -3362,13 +3364,13 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
+        <v>305</v>
+      </c>
+      <c r="D95" t="s">
         <v>306</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>307</v>
-      </c>
-      <c r="E95" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,16 +3378,16 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" t="s">
         <v>309</v>
       </c>
-      <c r="C96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>310</v>
-      </c>
-      <c r="E96" t="s">
-        <v>311</v>
       </c>
       <c r="F96" t="s">
         <v>44</v>
@@ -3396,13 +3398,13 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" t="s">
         <v>312</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>313</v>
-      </c>
-      <c r="E97" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,16 +3412,16 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" t="s">
         <v>315</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>316</v>
       </c>
-      <c r="D98" t="s">
-        <v>317</v>
-      </c>
       <c r="E98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F98" t="s">
         <v>44</v>
@@ -3430,16 +3432,16 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" t="s">
         <v>318</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>319</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>320</v>
-      </c>
-      <c r="E99" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,16 +3449,16 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
         <v>322</v>
       </c>
-      <c r="C100" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>323</v>
-      </c>
-      <c r="E100" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3464,16 +3466,16 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
         <v>325</v>
       </c>
-      <c r="C101" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" t="s">
-        <v>326</v>
-      </c>
       <c r="E101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F101" t="s">
         <v>44</v>
@@ -3484,16 +3486,16 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
         <v>327</v>
       </c>
-      <c r="C102" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" t="s">
-        <v>328</v>
-      </c>
       <c r="E102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F102" t="s">
         <v>44</v>
@@ -3504,16 +3506,16 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" t="s">
         <v>329</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>330</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>331</v>
-      </c>
-      <c r="E103" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3521,16 +3523,16 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
+        <v>332</v>
+      </c>
+      <c r="C104" t="s">
         <v>333</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>334</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>335</v>
-      </c>
-      <c r="E104" t="s">
-        <v>336</v>
       </c>
       <c r="F104" t="s">
         <v>44</v>
@@ -3541,16 +3543,16 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
+        <v>336</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
         <v>337</v>
       </c>
-      <c r="C105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>338</v>
-      </c>
-      <c r="E105" t="s">
-        <v>339</v>
       </c>
       <c r="F105" t="s">
         <v>44</v>
@@ -3561,16 +3563,16 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
         <v>340</v>
       </c>
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>341</v>
-      </c>
-      <c r="E106" t="s">
-        <v>342</v>
       </c>
       <c r="F106" t="s">
         <v>44</v>
@@ -3581,16 +3583,16 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
+        <v>342</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
         <v>343</v>
       </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>344</v>
-      </c>
-      <c r="E107" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3598,16 +3600,16 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
+        <v>345</v>
+      </c>
+      <c r="C108" t="s">
         <v>346</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>347</v>
       </c>
-      <c r="D108" t="s">
-        <v>348</v>
-      </c>
       <c r="E108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3615,16 +3617,16 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" t="s">
         <v>349</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>350</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>351</v>
-      </c>
-      <c r="E109" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3632,16 +3634,16 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
+        <v>352</v>
+      </c>
+      <c r="C110" t="s">
         <v>353</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>354</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>355</v>
-      </c>
-      <c r="E110" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3649,16 +3651,16 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
+        <v>356</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
         <v>357</v>
       </c>
-      <c r="C111" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>358</v>
-      </c>
-      <c r="E111" t="s">
-        <v>359</v>
       </c>
       <c r="F111" t="s">
         <v>44</v>
@@ -3669,16 +3671,16 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" t="s">
+        <v>353</v>
+      </c>
+      <c r="D112" t="s">
         <v>360</v>
       </c>
-      <c r="C112" t="s">
-        <v>354</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>361</v>
-      </c>
-      <c r="E112" t="s">
-        <v>362</v>
       </c>
       <c r="F112" t="s">
         <v>44</v>
@@ -3689,16 +3691,16 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
         <v>363</v>
       </c>
-      <c r="C113" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>364</v>
-      </c>
-      <c r="E113" t="s">
-        <v>365</v>
       </c>
       <c r="F113" t="s">
         <v>44</v>
@@ -3709,16 +3711,16 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
+        <v>365</v>
+      </c>
+      <c r="C114" t="s">
         <v>366</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>367</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>368</v>
-      </c>
-      <c r="E114" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3726,16 +3728,16 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
+        <v>369</v>
+      </c>
+      <c r="C115" t="s">
         <v>370</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>371</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>372</v>
-      </c>
-      <c r="E115" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3743,13 +3745,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
+        <v>373</v>
+      </c>
+      <c r="D116" t="s">
         <v>374</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>375</v>
-      </c>
-      <c r="E116" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,13 +3759,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
+        <v>376</v>
+      </c>
+      <c r="D117" t="s">
         <v>377</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>378</v>
-      </c>
-      <c r="E117" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3771,13 +3773,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
+        <v>379</v>
+      </c>
+      <c r="D118" t="s">
         <v>380</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>381</v>
-      </c>
-      <c r="E118" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3785,13 +3787,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" t="s">
         <v>383</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>384</v>
-      </c>
-      <c r="E119" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,13 +3801,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
+        <v>385</v>
+      </c>
+      <c r="D120" t="s">
         <v>386</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>387</v>
-      </c>
-      <c r="E120" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3813,13 +3815,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
+        <v>388</v>
+      </c>
+      <c r="D121" t="s">
         <v>389</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>390</v>
-      </c>
-      <c r="E121" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3827,16 +3829,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
+        <v>391</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
         <v>392</v>
       </c>
-      <c r="C122" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>393</v>
-      </c>
-      <c r="E122" t="s">
-        <v>394</v>
       </c>
       <c r="F122" t="s">
         <v>44</v>
@@ -3847,16 +3849,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
+        <v>394</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
         <v>395</v>
       </c>
-      <c r="C123" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>396</v>
-      </c>
-      <c r="E123" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3864,16 +3866,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
+        <v>397</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
         <v>398</v>
       </c>
-      <c r="C124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>399</v>
-      </c>
-      <c r="E124" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3881,13 +3883,13 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
+        <v>400</v>
+      </c>
+      <c r="D125" t="s">
         <v>401</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>402</v>
-      </c>
-      <c r="E125" t="s">
-        <v>403</v>
       </c>
       <c r="F125" t="s">
         <v>44</v>
@@ -3898,13 +3900,13 @@
         <v>130</v>
       </c>
       <c r="B126" t="s">
+        <v>403</v>
+      </c>
+      <c r="D126" t="s">
         <v>404</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>405</v>
-      </c>
-      <c r="E126" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3912,16 +3914,16 @@
         <v>131</v>
       </c>
       <c r="B127" t="s">
+        <v>406</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
         <v>407</v>
       </c>
-      <c r="C127" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>408</v>
-      </c>
-      <c r="E127" t="s">
-        <v>409</v>
       </c>
       <c r="F127" t="s">
         <v>44</v>
@@ -3932,16 +3934,16 @@
         <v>132</v>
       </c>
       <c r="B128" t="s">
+        <v>409</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
         <v>410</v>
       </c>
-      <c r="C128" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>411</v>
-      </c>
-      <c r="E128" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3949,13 +3951,13 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
+        <v>412</v>
+      </c>
+      <c r="D129" t="s">
         <v>413</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>414</v>
-      </c>
-      <c r="E129" t="s">
-        <v>415</v>
       </c>
       <c r="F129" t="s">
         <v>44</v>
@@ -3966,16 +3968,16 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
+        <v>415</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
         <v>416</v>
       </c>
-      <c r="C130" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>417</v>
-      </c>
-      <c r="E130" t="s">
-        <v>418</v>
       </c>
       <c r="F130" t="s">
         <v>44</v>
@@ -3986,13 +3988,13 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
+        <v>418</v>
+      </c>
+      <c r="D131" t="s">
         <v>419</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>420</v>
-      </c>
-      <c r="E131" t="s">
-        <v>421</v>
       </c>
       <c r="F131" t="s">
         <v>44</v>
@@ -4003,13 +4005,13 @@
         <v>137</v>
       </c>
       <c r="B132" t="s">
+        <v>421</v>
+      </c>
+      <c r="D132" t="s">
         <v>422</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>423</v>
-      </c>
-      <c r="E132" t="s">
-        <v>424</v>
       </c>
       <c r="F132" t="s">
         <v>44</v>
@@ -4020,16 +4022,16 @@
         <v>138</v>
       </c>
       <c r="B133" t="s">
+        <v>424</v>
+      </c>
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" t="s">
         <v>425</v>
       </c>
-      <c r="C133" t="s">
-        <v>215</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>426</v>
-      </c>
-      <c r="E133" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4037,16 +4039,16 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
+        <v>427</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
         <v>428</v>
       </c>
-      <c r="C134" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" t="s">
-        <v>429</v>
-      </c>
       <c r="E134" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F134" t="s">
         <v>44</v>
@@ -4057,16 +4059,16 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
+        <v>429</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
         <v>430</v>
       </c>
-      <c r="C135" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" t="s">
-        <v>431</v>
-      </c>
       <c r="E135" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F135" t="s">
         <v>44</v>
@@ -4077,13 +4079,13 @@
         <v>141</v>
       </c>
       <c r="B136" t="s">
+        <v>431</v>
+      </c>
+      <c r="D136" t="s">
         <v>432</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>433</v>
-      </c>
-      <c r="E136" t="s">
-        <v>434</v>
       </c>
       <c r="F136" t="s">
         <v>44</v>
@@ -4094,13 +4096,13 @@
         <v>142</v>
       </c>
       <c r="B137" t="s">
+        <v>434</v>
+      </c>
+      <c r="D137" t="s">
         <v>435</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>436</v>
-      </c>
-      <c r="E137" t="s">
-        <v>437</v>
       </c>
       <c r="F137" t="s">
         <v>44</v>
@@ -4111,16 +4113,16 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" t="s">
         <v>438</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>439</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>440</v>
-      </c>
-      <c r="E138" t="s">
-        <v>441</v>
       </c>
       <c r="F138" t="s">
         <v>44</v>
@@ -4131,16 +4133,16 @@
         <v>144</v>
       </c>
       <c r="B139" t="s">
+        <v>441</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
         <v>442</v>
       </c>
-      <c r="C139" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>443</v>
-      </c>
-      <c r="E139" t="s">
-        <v>444</v>
       </c>
       <c r="F139" t="s">
         <v>44</v>
